--- a/TakeProfit.xlsx
+++ b/TakeProfit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>nhìn vào hình trên khi giá retest lại ngưỡng 1 lần thứ 2 thì nó tạo ra rất nhiều cái đỉnh trước đó, và khi nó phá cái đỉnh nho nhỏ gần đó thì tạo ra phản ứng dây chuyền</t>
   </si>
+  <si>
+    <t>Tất cả các tài liệu chỉ viết ví dụ cho trường hợp là tăng, còn giảm thì cũng tương tự</t>
+  </si>
 </sst>
 </file>
 
@@ -290,13 +293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>122885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1170"/>
+  <dimension ref="A1:Q1171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,24 +733,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -755,37 +758,24 @@
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
-        <v>12</v>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -806,7 +796,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -827,7 +817,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -848,7 +838,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -869,7 +859,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -890,7 +880,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -911,7 +901,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -932,7 +922,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -953,7 +943,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -974,7 +964,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -995,7 +985,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -1016,7 +1006,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -1037,12 +1027,10 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -1059,10 +1047,12 @@
     <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -1082,9 +1072,10 @@
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="F64" s="6" t="s">
-        <v>49</v>
+      <c r="E64" s="6" t="s">
+        <v>36</v>
       </c>
+      <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -1103,7 +1094,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -1122,10 +1113,9 @@
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="6" t="s">
-        <v>50</v>
+      <c r="F66" s="6" t="s">
+        <v>48</v>
       </c>
-      <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -1144,7 +1134,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -1165,7 +1155,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -1186,7 +1176,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -1207,7 +1197,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -1228,7 +1218,7 @@
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -1249,7 +1239,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -1270,7 +1260,7 @@
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -1290,7 +1280,9 @@
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -1307,9 +1299,7 @@
     <row r="75" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -1328,9 +1318,10 @@
     <row r="76" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
-      <c r="D76" s="6" t="s">
-        <v>22</v>
+      <c r="C76" s="6" t="s">
+        <v>21</v>
       </c>
+      <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -1348,9 +1339,8 @@
     <row r="77" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -1371,7 +1361,7 @@
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -1392,7 +1382,7 @@
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -1413,7 +1403,7 @@
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -1434,7 +1424,7 @@
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -1455,7 +1445,7 @@
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -1476,7 +1466,7 @@
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -1496,8 +1486,8 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="2" t="s">
-        <v>26</v>
+      <c r="D84" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -1517,8 +1507,8 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="6" t="s">
-        <v>27</v>
+      <c r="D85" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -1538,7 +1528,9 @@
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -1557,9 +1549,7 @@
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -1579,7 +1569,7 @@
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -1600,7 +1590,7 @@
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -1620,7 +1610,9 @@
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -22155,6 +22147,25 @@
       <c r="P1170" s="6"/>
       <c r="Q1170" s="6"/>
     </row>
+    <row r="1171" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1171" s="6"/>
+      <c r="B1171" s="6"/>
+      <c r="C1171" s="6"/>
+      <c r="D1171" s="6"/>
+      <c r="E1171" s="6"/>
+      <c r="F1171" s="6"/>
+      <c r="G1171" s="6"/>
+      <c r="H1171" s="6"/>
+      <c r="I1171" s="6"/>
+      <c r="J1171" s="6"/>
+      <c r="K1171" s="6"/>
+      <c r="L1171" s="6"/>
+      <c r="M1171" s="6"/>
+      <c r="N1171" s="6"/>
+      <c r="O1171" s="6"/>
+      <c r="P1171" s="6"/>
+      <c r="Q1171" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TakeProfit.xlsx
+++ b/TakeProfit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -185,12 +185,15 @@
   <si>
     <t>Tất cả các tài liệu chỉ viết ví dụ cho trường hợp là tăng, còn giảm thì cũng tương tự</t>
   </si>
+  <si>
+    <t>Lĩnh ngộ tinh túy thị trường</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +241,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -270,6 +281,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +625,7 @@
   <dimension ref="A1:Q1171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,13 +736,16 @@
       <c r="C11" s="5"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
